--- a/TonTask_Bug_Report_Part1.xlsx
+++ b/TonTask_Bug_Report_Part1.xlsx
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. Open registration screen
-2. Enter existing email: test1@example.com
+2. Enter existing email: ahmed.maher.tester@gmail.com
 3. Fill other valid fields
 4. Submit the form</t>
   </si>
@@ -274,7 +274,7 @@
   <si>
     <t xml:space="preserve">1.Open the app
 2.Go to registration screen
-3.Enter an email already used (e.g., test1@example.com)
+3.Enter an email already used (ahmed.maher.tester@gmail.com)
 4,Fill other valid fields
 5.Submit</t>
   </si>
@@ -323,7 +323,7 @@
 5.Click Submit </t>
   </si>
   <si>
-    <t xml:space="preserve">Validation error should appear (e.g., "Date is required") </t>
+    <t xml:space="preserve">Validation error should appear ("Date is required") </t>
   </si>
   <si>
     <t xml:space="preserve">Task is created and saved with empty date </t>
@@ -367,7 +367,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">User B should see User A's public task </t>
+    <t xml:space="preserve">User B should see User As public task </t>
   </si>
   <si>
     <t xml:space="preserve">Public task is not visible in User B's dashboard or public section </t>
@@ -428,7 +428,7 @@
   <si>
     <t xml:space="preserve">1.Go to create new task
 2.Click "New Task"
-3.Do not select task type (one-time, weekly, etc.)
+3.Do not select task type (one-time, weekly)
 4.Click “Next” or try to proceed
 </t>
   </si>
@@ -795,15 +795,15 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56.16"/>
   </cols>
@@ -1329,6 +1329,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="ahmed.maher.tester@gmail.com"/>
+    <hyperlink ref="D12" r:id="rId2" display="ahmed.maher.tester@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
